--- a/measurements/proj1_performance.xlsx
+++ b/measurements/proj1_performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\git\Project1-CUDA-Flocking\measurements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2ECDB4-2259-4E53-B282-88FC1981965A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7484B66-4BDE-43A3-BFF6-F82DADBF1E27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="2925" windowWidth="28800" windowHeight="15435" xr2:uid="{1141E45A-A9B3-4476-95F1-3B3A76DACB8D}"/>
   </bookViews>
@@ -94,18 +94,184 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -114,13 +280,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,6 +407,3637 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boid Count vs FPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>403.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFC1-4F26-A5BF-56B4D847D3F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Scattered)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1184.9000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>987.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>627.07000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BFC1-4F26-A5BF-56B4D847D3F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Coherent)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1162.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1189.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1137.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>284.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BFC1-4F26-A5BF-56B4D847D3F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="552311200"/>
+        <c:axId val="552315136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="552311200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Boid Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552315136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552315136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552311200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Block Size vs FPS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$11:$H$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>256</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5,000 Boids</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50,000 Boids</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>419.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>414.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.950000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.520000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E96-4ABB-B784-299519C6F8C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Scattered)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$11:$H$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>256</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5,000 Boids</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50,000 Boids</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1156.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>912.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>947.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>921.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E96-4ABB-B784-299519C6F8C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Coherent)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$C$11:$H$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>256</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>128</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>256</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>5,000 Boids</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>50,000 Boids</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$15:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1159.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1161.3699999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1203.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1140.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1155.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1192.8699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E96-4ABB-B784-299519C6F8C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="560234208"/>
+        <c:axId val="560230928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="560234208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Block Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560230928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="560230928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="560234208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Grid Size vs FPS (50,000 Boids)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naïve</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2X</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3X</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D9C-4991-8E4A-F8A0B36779F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Scattered)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2X</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3X</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>909.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>959.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>737.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>505.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9D9C-4991-8E4A-F8A0B36779F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USG (Coherent)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$20:$F$20</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2X</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3X</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4X</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>894.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1191.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1062.8699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>827.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D9C-4991-8E4A-F8A0B36779F7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="290821800"/>
+        <c:axId val="696023608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="290821800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Grid Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (multiples of Max Rule Distance)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696023608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696023608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290821800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>402981</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>159726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>84261</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A49C2A7-6241-4FFA-A80B-DDCB672309E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>153865</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>189034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298B346C-63BB-4313-A376-D0B9FC931CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>322385</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C8040B-542B-42D1-AED4-B301527CA82F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,7 +4340,7 @@
   <dimension ref="B2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,39 +4349,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23">
         <v>5000</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="23">
         <v>10000</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="23">
         <v>50000</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="23">
         <v>100000</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="24">
         <v>500000</v>
       </c>
       <c r="I4" t="s">
@@ -548,22 +4390,22 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>403.48</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>204.21</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>38.78</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <v>0</v>
       </c>
       <c r="I5" t="s">
@@ -571,190 +4413,192 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>1188</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1184.9000000000001</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>987.34</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>627.07000000000005</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <v>29.04</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>1162.19</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="10">
         <v>1189.1500000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>1137.3900000000001</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="10">
         <v>832.61</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="11">
         <v>284.32</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
       <c r="I11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
+      <c r="B12" s="9"/>
+      <c r="C12" s="19">
         <v>64</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="19">
         <v>128</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="19">
         <v>256</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="20">
         <v>64</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="19">
         <v>128</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="21">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>419.86</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>414.04</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="7">
         <v>400.96</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="7">
         <v>36.950000000000003</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="7">
         <v>38.29</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="8">
         <v>39.520000000000003</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>1156.52</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>1195</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="7">
         <v>1207.05</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="7">
         <v>912.68</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="7">
         <v>947.79</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="8">
         <v>921.26</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="10">
         <v>1159.92</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="10">
         <v>1161.3699999999999</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>1203.67</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="10">
         <v>1140.07</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="10">
         <v>1155.46</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="11">
         <v>1192.8699999999999</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" t="s">
@@ -762,13 +4606,13 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" t="s">
@@ -776,47 +4620,75 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="26" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>39.299999999999997</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38.33</v>
+      </c>
+      <c r="E21" s="7">
+        <v>38.74</v>
+      </c>
+      <c r="F21" s="8">
+        <v>38.4</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>909.63</v>
+      </c>
+      <c r="D22" s="7">
+        <v>959.51</v>
+      </c>
+      <c r="E22" s="7">
+        <v>737.65</v>
+      </c>
+      <c r="F22" s="8">
+        <v>505.22</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>894.32</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1191.42</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1062.8699999999999</v>
+      </c>
+      <c r="F23" s="11">
+        <v>827.34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B3:G3"/>
@@ -839,5 +4711,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>